--- a/Reference/4th edition - current/2014 Guide to Health Law/WSMA Legal Guide with Citations.xlsx
+++ b/Reference/4th edition - current/2014 Guide to Health Law/WSMA Legal Guide with Citations.xlsx
@@ -1489,8 +1489,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFA8739BA1019D47960C675B9B3F6820" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0718083d3a4670ed9f16cd11df1445e8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cfadd86-a1a9-474f-b6eb-99ec3ef85d16" xmlns:ns3="be67b25f-4565-4fdb-a73b-b15736280f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c84221e7ed96d70685c02f625c5a54f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFA8739BA1019D47960C675B9B3F6820" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="625376f94d5be268177f5a103dcec7f8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cfadd86-a1a9-474f-b6eb-99ec3ef85d16" xmlns:ns3="be67b25f-4565-4fdb-a73b-b15736280f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13e830c5a4997de11d1f8176b98f5756" ns2:_="" ns3:_="">
     <xsd:import namespace="0cfadd86-a1a9-474f-b6eb-99ec3ef85d16"/>
     <xsd:import namespace="be67b25f-4565-4fdb-a73b-b15736280f77"/>
     <xsd:element name="properties">
@@ -1507,6 +1507,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1545,6 +1546,13 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1693,7 +1701,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BCA2CA-0C47-4C67-ACB4-F8D1AB48748C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB036DD6-FD43-48D1-BCC2-DCEB85B9F68E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
